--- a/Компьютерные сети/3/calc.xlsx
+++ b/Компьютерные сети/3/calc.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Workspace\Лабы\lab_materials\Компьютерные сети\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7318F798-9BD1-4DA0-B557-77F9FB0C5C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EDE0AF-A2FA-496D-8D35-DC382B27B3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{23690A7D-A062-4F28-846D-DF12ED64D018}"/>
+    <workbookView xWindow="-27870" yWindow="10230" windowWidth="13650" windowHeight="9330" xr2:uid="{23690A7D-A062-4F28-846D-DF12ED64D018}"/>
   </bookViews>
   <sheets>
-    <sheet name="IPX" sheetId="1" r:id="rId1"/>
+    <sheet name="UDP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,8 +89,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -155,12 +155,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -479,7 +480,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,7 +693,7 @@
         <f>1 - B19/D2</f>
         <v>0.76234351946156098</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <f>1-D19/D2</f>
         <v>0.98981383532186462</v>
       </c>
